--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 20,85</t>
+          <t>-0,01; 21,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 24,76</t>
+          <t>2,14; 25,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 15,22</t>
+          <t>-7,3; 16,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 6,03</t>
+          <t>-15,62; 6,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 187,43</t>
+          <t>-0,12; 188,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 184,42</t>
+          <t>3,85; 175,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 96,17</t>
+          <t>-29,4; 94,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 26,89</t>
+          <t>-41,55; 25,75</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,23</t>
+          <t>6,39; 16,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,0</t>
+          <t>3,08; 12,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,38</t>
+          <t>-0,3; 9,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,41</t>
+          <t>-0,19; 7,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,31; 98,64</t>
+          <t>30,74; 101,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,56; 99,74</t>
+          <t>16,76; 93,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 62,69</t>
+          <t>-1,94; 59,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 50,31</t>
+          <t>-0,94; 45,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,65</t>
+          <t>7,5; 15,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,26</t>
+          <t>5,04; 12,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,76</t>
+          <t>4,63; 11,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,44</t>
+          <t>4,99; 11,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,49; 79,8</t>
+          <t>31,25; 83,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,17; 97,19</t>
+          <t>30,02; 94,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 90,89</t>
+          <t>27,54; 90,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 108,08</t>
+          <t>33,46; 108,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,81</t>
+          <t>1,69; 10,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,7</t>
+          <t>2,1; 10,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,31</t>
+          <t>1,05; 8,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,14</t>
+          <t>-3,62; 7,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 72,58</t>
+          <t>8,74; 70,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 66,86</t>
+          <t>10,09; 71,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 69,63</t>
+          <t>5,11; 66,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 58,38</t>
+          <t>-20,84; 55,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,24</t>
+          <t>7,25; 14,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,69</t>
+          <t>4,64; 12,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,38</t>
+          <t>3,97; 11,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,08</t>
+          <t>2,75; 10,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,97; 78,03</t>
+          <t>33,15; 84,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,17; 68,27</t>
+          <t>21,48; 69,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,53; 83,13</t>
+          <t>23,23; 81,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 57,52</t>
+          <t>13,14; 57,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>8,08; 12,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,01; 10,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,81; 8,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>2,97; 7,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>39,67; 66,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>32,66; 62,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>29,04; 57,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 47,63</t>
+          <t>17,9; 49,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 21,18</t>
+          <t>-0,41; 20,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 25,43</t>
+          <t>1,98; 24,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 16,27</t>
+          <t>-6,26; 15,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 188,38</t>
+          <t>-2,38; 181,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 175,7</t>
+          <t>6,21; 169,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 94,71</t>
+          <t>-23,35; 92,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 16,09</t>
+          <t>6,26; 16,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 12,6</t>
+          <t>3,21; 12,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 9,1</t>
+          <t>-0,55; 9,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 101,85</t>
+          <t>31,23; 100,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 93,58</t>
+          <t>16,78; 96,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 59,74</t>
+          <t>-2,8; 67,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,96</t>
+          <t>7,28; 15,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,06</t>
+          <t>4,73; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,83</t>
+          <t>4,91; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,25; 83,56</t>
+          <t>30,39; 81,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,02; 94,95</t>
+          <t>29,84; 95,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 90,55</t>
+          <t>30,12; 91,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,78</t>
+          <t>2,1; 10,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,96</t>
+          <t>2,1; 10,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,9</t>
+          <t>1,17; 8,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 70,83</t>
+          <t>10,75; 72,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 71,02</t>
+          <t>11,15; 67,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 66,34</t>
+          <t>5,83; 63,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,9</t>
+          <t>6,98; 14,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,5</t>
+          <t>3,97; 12,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 11,07</t>
+          <t>4,02; 10,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,15; 84,28</t>
+          <t>31,1; 81,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,48; 69,68</t>
+          <t>17,92; 66,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,23; 81,75</t>
+          <t>23,01; 78,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,33</t>
+          <t>8,19; 12,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,3</t>
+          <t>6,25; 10,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,46</t>
+          <t>4,69; 8,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,67; 66,41</t>
+          <t>40,44; 67,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,66; 62,14</t>
+          <t>34,49; 63,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,04; 57,44</t>
+          <t>28,09; 57,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 20,69</t>
+          <t>0,24; 20,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 24,89</t>
+          <t>1,46; 24,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 15,66</t>
+          <t>-8,07; 15,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 6,05</t>
+          <t>-15,32; 6,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 181,36</t>
+          <t>0,61; 187,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 169,21</t>
+          <t>5,18; 184,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 92,53</t>
+          <t>-28,54; 96,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 25,75</t>
+          <t>-40,28; 26,89</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,35</t>
+          <t>6,09; 16,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,78</t>
+          <t>3,43; 13,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,75</t>
+          <t>-0,27; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,72</t>
+          <t>-0,37; 8,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,23; 100,74</t>
+          <t>29,31; 98,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 96,18</t>
+          <t>18,56; 99,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 67,56</t>
+          <t>-1,88; 62,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 45,97</t>
+          <t>-1,88; 50,31</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,59</t>
+          <t>7,32; 15,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 12,08</t>
+          <t>4,83; 12,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,92</t>
+          <t>4,62; 11,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,7</t>
+          <t>4,98; 11,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,39; 81,63</t>
+          <t>30,49; 79,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,84; 95,55</t>
+          <t>30,17; 97,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 91,46</t>
+          <t>27,94; 90,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,46; 108,74</t>
+          <t>36,02; 108,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,64</t>
+          <t>1,81; 10,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,77</t>
+          <t>1,37; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,59</t>
+          <t>0,88; 9,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,88</t>
+          <t>-4,17; 8,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 72,71</t>
+          <t>9,17; 72,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 67,55</t>
+          <t>5,81; 66,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 63,14</t>
+          <t>5,3; 69,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 55,81</t>
+          <t>-21,45; 58,38</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,67</t>
+          <t>6,51; 14,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 12,16</t>
+          <t>4,89; 12,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,94</t>
+          <t>4,33; 11,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,22</t>
+          <t>2,84; 10,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,1; 81,04</t>
+          <t>29,97; 78,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 66,04</t>
+          <t>21,17; 68,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,01; 78,42</t>
+          <t>24,53; 83,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 57,81</t>
+          <t>12,68; 57,52</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,34</t>
+          <t>8,19; 12,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,4</t>
+          <t>6,13; 10,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,59</t>
+          <t>4,64; 8,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,82</t>
+          <t>2,88; 7,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,44; 67,11</t>
+          <t>40,29; 65,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,49; 63,65</t>
+          <t>33,59; 61,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,09; 57,66</t>
+          <t>27,52; 57,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,9; 49,38</t>
+          <t>16,59; 47,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 20,85</t>
+          <t>6,88; 15,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 24,76</t>
+          <t>4,48; 13,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 15,22</t>
+          <t>0,02; 8,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 6,03</t>
+          <t>-0,9; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 187,43</t>
+          <t>31,74; 94,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 184,42</t>
+          <t>24,48; 93,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 96,17</t>
+          <t>-0,07; 55,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 26,89</t>
+          <t>-4,48; 35,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,23</t>
+          <t>7,32; 15,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,0</t>
+          <t>4,83; 12,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,38</t>
+          <t>4,62; 11,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,41</t>
+          <t>6,63; 16,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,31; 98,64</t>
+          <t>30,49; 79,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,56; 99,74</t>
+          <t>30,17; 97,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 62,69</t>
+          <t>27,94; 90,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 50,31</t>
+          <t>47,93; 300,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,65</t>
+          <t>1,81; 10,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,26</t>
+          <t>1,37; 10,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,76</t>
+          <t>0,88; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,44</t>
+          <t>-7,93; 7,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,49; 79,8</t>
+          <t>9,17; 72,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,17; 97,19</t>
+          <t>5,81; 66,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 90,89</t>
+          <t>5,3; 69,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 108,08</t>
+          <t>-45,82; 49,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>26,79%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,81</t>
+          <t>6,51; 14,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,7</t>
+          <t>4,89; 12,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,31</t>
+          <t>4,33; 11,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,14</t>
+          <t>0,16; 9,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 72,58</t>
+          <t>29,97; 78,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 66,86</t>
+          <t>21,17; 68,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 69,63</t>
+          <t>24,53; 83,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 58,38</t>
+          <t>1,14; 52,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>47,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>36,52%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,24</t>
+          <t>8,19; 12,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,69</t>
+          <t>6,13; 10,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,38</t>
+          <t>4,64; 8,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,08</t>
+          <t>1,62; 9,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,97; 78,03</t>
+          <t>40,29; 65,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,17; 68,27</t>
+          <t>33,59; 61,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,53; 83,13</t>
+          <t>27,52; 57,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 57,52</t>
+          <t>11,35; 67,89</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>52,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>47,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>41,91%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>34,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 12,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 10,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 8,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 7,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>40,29; 65,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>33,59; 61,97</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>27,52; 57,94</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 47,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,58</t>
+          <t>6,73; 15,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 13,27</t>
+          <t>4,49; 13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,82</t>
+          <t>0,14; 9,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,45</t>
+          <t>-1,05; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 94,97</t>
+          <t>32,87; 97,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,48; 93,8</t>
+          <t>24,05; 94,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 55,02</t>
+          <t>-0,01; 56,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 35,55</t>
+          <t>-4,69; 36,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,65</t>
+          <t>7,36; 16,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,26</t>
+          <t>4,63; 12,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,76</t>
+          <t>4,73; 11,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,7</t>
+          <t>6,85; 16,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 79,8</t>
+          <t>31,38; 83,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 97,19</t>
+          <t>28,4; 93,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 90,89</t>
+          <t>29,32; 91,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,93; 300,33</t>
+          <t>48,84; 275,5</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,81</t>
+          <t>2,1; 10,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,7</t>
+          <t>1,81; 10,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,31</t>
+          <t>1,49; 9,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 7,26</t>
+          <t>-7,48; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,17; 72,58</t>
+          <t>10,57; 70,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 66,86</t>
+          <t>9,09; 66,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 69,63</t>
+          <t>8,99; 70,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 49,76</t>
+          <t>-42,83; 52,78</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,24</t>
+          <t>6,88; 14,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,69</t>
+          <t>4,84; 12,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,38</t>
+          <t>3,89; 11,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,04</t>
+          <t>-0,09; 8,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,97; 78,03</t>
+          <t>30,73; 80,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,17; 68,27</t>
+          <t>21,44; 68,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 83,13</t>
+          <t>22,75; 81,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 52,38</t>
+          <t>0,37; 51,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>7,88; 12,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,18; 10,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,58; 8,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,06</t>
+          <t>2,0; 9,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>37,8; 65,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>33,8; 62,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>27,55; 57,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 67,89</t>
+          <t>13,92; 70,41</t>
         </is>
       </c>
     </row>
